--- a/Mat_Price_Test_Test/2601920/features.xlsx
+++ b/Mat_Price_Test_Test/2601920/features.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,81 @@
           <t>Price_Material_var</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EoD_Bestand_noSiBe_log1p</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DeficitPos_log1p</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_100_log1p</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_100_log1p</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_66_log1p</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_66_log1p</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_50_log1p</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_50_log1p</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_25_log1p</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_25_log1p</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_7Tage</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_28Tage</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_wbzTage</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_2xwbzTage</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>L_WBZ_BlockMinAbs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,7 +570,54 @@
       <c r="F2" t="n">
         <v>175</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.09270939810426748</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.079441541679836</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.097638469563916</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.079441541679836</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1076306641923654</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.079441541679836</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.06595796779179743</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.386294361119891</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.342857142857143</v>
+      </c>
+      <c r="U2" t="n">
+        <v>24.08571428571429</v>
+      </c>
+      <c r="V2" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,7 +640,54 @@
       <c r="F3" t="n">
         <v>175</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.167932819341855</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2076393647782445</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2500510042341341</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.3429447511268304</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-7.142857142857143</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-5.535714285714286</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>23.87142857142857</v>
+      </c>
+      <c r="V3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -541,7 +710,54 @@
       <c r="F4" t="n">
         <v>175</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.167932819341855</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2076393647782445</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2500510042341341</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3429447511268304</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-9.285714285714286</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-6.071428571428571</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.977142857142857</v>
+      </c>
+      <c r="U4" t="n">
+        <v>23.65714285714286</v>
+      </c>
+      <c r="V4" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -564,7 +780,54 @@
       <c r="F5" t="n">
         <v>175</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.167932819341855</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2076393647782445</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2500510042341341</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3429447511268304</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-11.42857142857143</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-6.607142857142857</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.794285714285714</v>
+      </c>
+      <c r="U5" t="n">
+        <v>23.44285714285714</v>
+      </c>
+      <c r="V5" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -587,7 +850,54 @@
       <c r="F6" t="n">
         <v>175</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.167932819341855</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2076393647782445</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2500510042341341</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.3429447511268304</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-13.57142857142857</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-7.142857142857143</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.611428571428571</v>
+      </c>
+      <c r="U6" t="n">
+        <v>23.22857142857143</v>
+      </c>
+      <c r="V6" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -610,7 +920,54 @@
       <c r="F7" t="n">
         <v>175</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.167932819341855</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2076393647782445</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1861022796338607</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.3429447511268304</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-15.71428571428571</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-7.678571428571429</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.428571428571428</v>
+      </c>
+      <c r="U7" t="n">
+        <v>23.01428571428572</v>
+      </c>
+      <c r="V7" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -633,7 +990,54 @@
       <c r="F8" t="n">
         <v>175</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.167932819341855</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2076393647782445</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1861022796338607</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3429447511268304</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-17.85714285714286</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-8.214285714285714</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.245714285714286</v>
+      </c>
+      <c r="U8" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,7 +1060,54 @@
       <c r="F9" t="n">
         <v>175</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1823215567939546</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2282586519809802</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2140110677509373</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.3901976359773759</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-20.42857142857143</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-8.857142857142858</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.045714285714286</v>
+      </c>
+      <c r="U9" t="n">
+        <v>22.57714285714286</v>
+      </c>
+      <c r="V9" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -679,7 +1130,54 @@
       <c r="F10" t="n">
         <v>175</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1823215567939546</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2282586519809802</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2140110677509373</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.3901976359773759</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-20.85714285714286</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.845714285714286</v>
+      </c>
+      <c r="U10" t="n">
+        <v>22.35428571428572</v>
+      </c>
+      <c r="V10" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -702,7 +1200,54 @@
       <c r="F11" t="n">
         <v>175</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1823215567939546</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2282586519809802</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.2140110677509373</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.3901976359773759</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-21.28571428571428</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-10.14285714285714</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.645714285714286</v>
+      </c>
+      <c r="U11" t="n">
+        <v>22.13142857142857</v>
+      </c>
+      <c r="V11" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -725,7 +1270,54 @@
       <c r="F12" t="n">
         <v>175</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.356708826689592</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.1823215567939546</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2282586519809802</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2140110677509373</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.3901976359773759</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-21.71428571428572</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-10.78571428571429</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.445714285714286</v>
+      </c>
+      <c r="U12" t="n">
+        <v>21.90857142857143</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
